--- a/biology/Botanique/Leccinum_holopus/Leccinum_holopus.xlsx
+++ b/biology/Botanique/Leccinum_holopus/Leccinum_holopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet blanc des marais, Bolet blanc de neige
 Leccinum holopus, le Bolet blanc des marais, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par ses teintes blanchâtres, sa chair légèrement rougissante, son bout du pied parfois teinté de bleu et son habitat dans les milieux humides tels que les marais.
@@ -512,12 +524,50 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum holopus (Rostk.) Watling[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus holopus Rostk.[1].
-Synonymes
-Leccinum holopus a pour synonymes[1] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum holopus (Rostk.) Watling. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus holopus Rostk..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Leccinum holopus a pour synonymes 
 Boletus chioneus var. aerugineus Fr.
 Boletus holopus var. aerugineus (Fr.) J.Blum
 Boletus holopus Rostk.
@@ -548,47 +598,6 @@
 Trachypus scaber f. holopus (Rostk.) Romagn.
 Trachypus scaber subsp. holopus (Rostk.) Romagn., 1939
 Trachypus scaber var. holopus (Rostk.) Romagnesi
-Phylogénie
-Initialement nommé comme une espèce de Boletus par le mycologue allemand Friedrich Rostkovius en 1844[2], le champignon a ensuite été transféré dans le genre Leccinum par Roy Watling en 1960[3]. 
-Noms vulgaires et vernaculaires
-Bolet blanc des marais, Bolet blanc de neige[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leccinum_holopus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum holopus le Bolet blanc des marais, sont les suivantes :
-Son chapeau est de couleur blanche, crème à gris[4]. Parfois avec de légères teintes vertes.
-L'hyménophore présente des pores blancs à crème devenant grisâtres[4].
-Son stipe est blanc à blanchâtre, orné de squamules de couleur blanche à gris clair, présentant parfois des colorations bleues à sa base[4].
-La chair est de couleur blanche à crème, parfois un peu rougissante à la coupe, de saveur douce. Elle bleuit parfois faiblement à la base du pied[4].
-Réactions chimiques
-La chair devient verdâtre au Fe et lentement rose au formol[4].
 </t>
         </is>
       </c>
@@ -614,12 +623,162 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement nommé comme une espèce de Boletus par le mycologue allemand Friedrich Rostkovius en 1844, le champignon a ensuite été transféré dans le genre Leccinum par Roy Watling en 1960. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet blanc des marais, Bolet blanc de neige.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum holopus le Bolet blanc des marais, sont les suivantes :
+Son chapeau est de couleur blanche, crème à gris. Parfois avec de légères teintes vertes.
+L'hyménophore présente des pores blancs à crème devenant grisâtres.
+Son stipe est blanc à blanchâtre, orné de squamules de couleur blanche à gris clair, présentant parfois des colorations bleues à sa base.
+La chair est de couleur blanche à crème, parfois un peu rougissante à la coupe, de saveur douce. Elle bleuit parfois faiblement à la base du pied.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair devient verdâtre au Fe et lentement rose au formol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_holopus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs formes de Leccinum holopus ont été décrites. Dans la forme aerugineum, décrite par Josef Šutara en 2009, la chair se décolore en vert après une blessure[5]. Dans la variété americanum, décrite par Alexander H. Smith et Harry Delbert Thiers en 1971 à partir de collections faites dans le Michigan, la chair blessée se colore en rougeâtre[6]. Lannoy &amp; Estadès ont décrit Leccinum nucatum en 1993[7], un taxon qui a été publié plus tard (2007) comme variété nucatum de L. holopus[8]. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs formes de Leccinum holopus ont été décrites. Dans la forme aerugineum, décrite par Josef Šutara en 2009, la chair se décolore en vert après une blessure. Dans la variété americanum, décrite par Alexander H. Smith et Harry Delbert Thiers en 1971 à partir de collections faites dans le Michigan, la chair blessée se colore en rougeâtre. Lannoy &amp; Estadès ont décrit Leccinum nucatum en 1993, un taxon qui a été publié plus tard (2007) comme variété nucatum de L. holopus. 
 </t>
         </is>
       </c>
